--- a/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>103434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85611</v>
+        <v>85110</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124422</v>
+        <v>122556</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2164622212383478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1791634842217299</v>
+        <v>0.1781142589340862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2603852159118449</v>
+        <v>0.2564798832881087</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -765,19 +765,19 @@
         <v>120303</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101908</v>
+        <v>102498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>140234</v>
+        <v>140288</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2239919728388725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1897413219969199</v>
+        <v>0.1908414231038077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2611019230976591</v>
+        <v>0.2612013323855692</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>219</v>
@@ -786,19 +786,19 @@
         <v>223737</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196729</v>
+        <v>198099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>248810</v>
+        <v>251664</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2204468846677885</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1938363688048035</v>
+        <v>0.1951859905527965</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2451517270124163</v>
+        <v>0.2479634265710619</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>374403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353415</v>
+        <v>355281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>392226</v>
+        <v>392727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7835377787616522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7396147840881548</v>
+        <v>0.7435201167118913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8208365157782699</v>
+        <v>0.8218857410659138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>424</v>
@@ -836,19 +836,19 @@
         <v>416784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>396853</v>
+        <v>396799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>435179</v>
+        <v>434589</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7760080271611275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.738898076902341</v>
+        <v>0.7387986676144307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8102586780030802</v>
+        <v>0.8091585768961922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>796</v>
@@ -857,19 +857,19 @@
         <v>791187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>766114</v>
+        <v>763260</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>818195</v>
+        <v>816825</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7795531153322115</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7548482729875836</v>
+        <v>0.752036573428938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8061636311951962</v>
+        <v>0.804814009447203</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>194345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>168928</v>
+        <v>166976</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219847</v>
+        <v>220616</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2691287544932437</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.233930225230372</v>
+        <v>0.2312274958868175</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3044436037592613</v>
+        <v>0.3055076430430539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -982,19 +982,19 @@
         <v>228974</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>204879</v>
+        <v>204059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>256992</v>
+        <v>256509</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2847136065916903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2547533137166716</v>
+        <v>0.2537336958512976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3195517547907791</v>
+        <v>0.3189517353008643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>387</v>
@@ -1003,19 +1003,19 @@
         <v>423319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>384275</v>
+        <v>389975</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>458907</v>
+        <v>460185</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2773403138362446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2517597590944524</v>
+        <v>0.2554944304226369</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3006557612971724</v>
+        <v>0.3014930621282907</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>527783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>502281</v>
+        <v>501512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>553200</v>
+        <v>555152</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7308712455067563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6955563962407386</v>
+        <v>0.6944923569569458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.766069774769628</v>
+        <v>0.7687725041131823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>542</v>
@@ -1053,19 +1053,19 @@
         <v>575252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>547234</v>
+        <v>547717</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>599347</v>
+        <v>600167</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7152863934083098</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6804482452092209</v>
+        <v>0.6810482646991357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7452466862833284</v>
+        <v>0.7462663041487024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1037</v>
@@ -1074,19 +1074,19 @@
         <v>1103035</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1067447</v>
+        <v>1066169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1142079</v>
+        <v>1136379</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7226596861637553</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6993442387028276</v>
+        <v>0.6985069378717095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.748240240905548</v>
+        <v>0.7445055695773632</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>164255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144436</v>
+        <v>142219</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189505</v>
+        <v>187476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3013369200686381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2649774196798915</v>
+        <v>0.2609089022135169</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3476591339028047</v>
+        <v>0.3439367143547437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>198</v>
@@ -1199,19 +1199,19 @@
         <v>195609</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173350</v>
+        <v>174012</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220012</v>
+        <v>218117</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3351603928049295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.297021920404398</v>
+        <v>0.2981557049669328</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3769734556207761</v>
+        <v>0.3737262492215703</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -1220,19 +1220,19 @@
         <v>359864</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>330799</v>
+        <v>329961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>389619</v>
+        <v>391870</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.31882609441948</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2930753729503794</v>
+        <v>0.292333069221654</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3451873903758907</v>
+        <v>0.3471820752916955</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>380834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>355584</v>
+        <v>357613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400653</v>
+        <v>402870</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6986630799313619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6523408660971953</v>
+        <v>0.6560632856452563</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7350225803201086</v>
+        <v>0.7390910977864825</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>397</v>
@@ -1270,19 +1270,19 @@
         <v>388019</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>363616</v>
+        <v>365511</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>410278</v>
+        <v>409616</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6648396071950705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6230265443792238</v>
+        <v>0.6262737507784296</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.702978079595602</v>
+        <v>0.7018442950330672</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>758</v>
@@ -1291,19 +1291,19 @@
         <v>768853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>739098</v>
+        <v>736847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>797918</v>
+        <v>798756</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.68117390558052</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6548126096241095</v>
+        <v>0.6528179247083045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7069246270496208</v>
+        <v>0.707666930778346</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>240408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>216490</v>
+        <v>216143</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>263920</v>
+        <v>263411</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3387523714641544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3050494814905018</v>
+        <v>0.3045610025505077</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3718813995755601</v>
+        <v>0.3711640899831998</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -1416,19 +1416,19 @@
         <v>251999</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>225254</v>
+        <v>227065</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>281458</v>
+        <v>282111</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3099367263201382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2770428763124099</v>
+        <v>0.279269723970483</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3461684682354835</v>
+        <v>0.3469712605110656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>495</v>
@@ -1437,19 +1437,19 @@
         <v>492408</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>454767</v>
+        <v>453882</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>526623</v>
+        <v>528220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3233664025633383</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2986476340951457</v>
+        <v>0.2980664845409481</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3458358249463403</v>
+        <v>0.346884447480288</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>469280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>445768</v>
+        <v>446277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>493198</v>
+        <v>493545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6612476285358456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6281186004244399</v>
+        <v>0.6288359100168003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6949505185094982</v>
+        <v>0.6954389974494923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>539</v>
@@ -1487,19 +1487,19 @@
         <v>561068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>531609</v>
+        <v>530956</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>587813</v>
+        <v>586002</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6900632736798619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6538315317645165</v>
+        <v>0.6530287394889345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.72295712368759</v>
+        <v>0.720730276029517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1039</v>
@@ -1508,19 +1508,19 @@
         <v>1030347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>996132</v>
+        <v>994535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1067988</v>
+        <v>1068873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6766335974366616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6541641750536598</v>
+        <v>0.653115552519712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7013523659048543</v>
+        <v>0.7019335154590519</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>702443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.286157556173239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>774</v>
@@ -1633,19 +1633,19 @@
         <v>796886</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2910457493136153</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1453</v>
@@ -1654,19 +1654,19 @@
         <v>1499329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2887349793938603</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1752299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1706561</v>
+        <v>1707218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1797479</v>
+        <v>1801474</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.713842443826761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6952101176123363</v>
+        <v>0.6954775415294197</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7322474890281166</v>
+        <v>0.7338749551566242</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1902</v>
@@ -1704,19 +1704,19 @@
         <v>1941123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1895389</v>
+        <v>1895088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1986103</v>
+        <v>1987796</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7089542506863847</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6922510055254396</v>
+        <v>0.6921407233128085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7253822819560062</v>
+        <v>0.7260006726417502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3630</v>
@@ -1725,19 +1725,19 @@
         <v>3693421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3629110</v>
+        <v>3627275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3763904</v>
+        <v>3756751</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7112650206061397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6988801914192303</v>
+        <v>0.6985267662600824</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7248383523268791</v>
+        <v>0.7234608520321749</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>133337</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115194</v>
+        <v>112762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154522</v>
+        <v>154107</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2204270023718131</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1904340320424847</v>
+        <v>0.1864128705436258</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.255448830150978</v>
+        <v>0.2547639334377723</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -2090,19 +2090,19 @@
         <v>182535</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162559</v>
+        <v>158868</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>205188</v>
+        <v>206024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2866716622004719</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2552990064919402</v>
+        <v>0.2495016558344729</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3222475646703962</v>
+        <v>0.3235605587009909</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>299</v>
@@ -2111,19 +2111,19 @@
         <v>315872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>286159</v>
+        <v>282750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>349319</v>
+        <v>350460</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2543986213888444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.230467741120804</v>
+        <v>0.2277222439709585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2813361617340282</v>
+        <v>0.2822547328084283</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>471566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450381</v>
+        <v>450796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489709</v>
+        <v>492141</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.779572997628187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7445511698490223</v>
+        <v>0.745236066562228</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8095659679575153</v>
+        <v>0.8135871294563745</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>425</v>
@@ -2161,19 +2161,19 @@
         <v>454205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>431552</v>
+        <v>430716</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>474181</v>
+        <v>477872</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7133283377995281</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6777524353296034</v>
+        <v>0.676439441299009</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7447009935080597</v>
+        <v>0.7504983441655269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>874</v>
@@ -2182,19 +2182,19 @@
         <v>925771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892324</v>
+        <v>891183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>955484</v>
+        <v>958893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7456013786111556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.718663838265971</v>
+        <v>0.7177452671915717</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7695322588791959</v>
+        <v>0.7722777560290416</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>261371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>234270</v>
+        <v>233433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>289208</v>
+        <v>288840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.301818637285296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2705240076167589</v>
+        <v>0.2695579943185251</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3339641180978847</v>
+        <v>0.3335387802907966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -2307,19 +2307,19 @@
         <v>238073</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>213316</v>
+        <v>211598</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269680</v>
+        <v>264161</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2645660679622903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2370534497339734</v>
+        <v>0.2351445427086184</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2996895845080523</v>
+        <v>0.2935561794750115</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>455</v>
@@ -2328,19 +2328,19 @@
         <v>499444</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>459663</v>
+        <v>462440</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537510</v>
+        <v>539406</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2828349993086382</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2603067435859386</v>
+        <v>0.2618795133989695</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3043919185876233</v>
+        <v>0.3054653832341833</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>604615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>576778</v>
+        <v>577146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>631716</v>
+        <v>632553</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.698181362714704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6660358819021154</v>
+        <v>0.6664612197092034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7294759923832411</v>
+        <v>0.7304420056814749</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>604</v>
@@ -2378,19 +2378,19 @@
         <v>661791</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>630184</v>
+        <v>635703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>686548</v>
+        <v>688266</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7354339320377097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7003104154919475</v>
+        <v>0.7064438205249886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7629465502660266</v>
+        <v>0.7648554572913816</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1165</v>
@@ -2399,19 +2399,19 @@
         <v>1266406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1228340</v>
+        <v>1226444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1306187</v>
+        <v>1303410</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7171650006913618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6956080814123768</v>
+        <v>0.6945346167658167</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7396932564140614</v>
+        <v>0.7381204866010306</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>182132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158242</v>
+        <v>158443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205482</v>
+        <v>208044</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2863561546997025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2487952327945472</v>
+        <v>0.2491109650358026</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3230674845067187</v>
+        <v>0.3270957792011449</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>207</v>
@@ -2524,19 +2524,19 @@
         <v>230692</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204085</v>
+        <v>205585</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>256426</v>
+        <v>258098</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3400040404973665</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3007895177145247</v>
+        <v>0.3030006893399309</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3779319422768633</v>
+        <v>0.3803959756970736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>376</v>
@@ -2545,19 +2545,19 @@
         <v>412823</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>376060</v>
+        <v>378053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>450344</v>
+        <v>449160</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3140465996568034</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2860797656000683</v>
+        <v>0.2875959682246466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3425897480319713</v>
+        <v>0.3416891431450015</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>453901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430551</v>
+        <v>427989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477791</v>
+        <v>477590</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7136438453002976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6769325154932813</v>
+        <v>0.672904220798855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7512047672054528</v>
+        <v>0.7508890349641972</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -2595,19 +2595,19 @@
         <v>447805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>422071</v>
+        <v>420399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>474412</v>
+        <v>472912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6599959595026335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6220680577231367</v>
+        <v>0.6196040243029264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6992104822854753</v>
+        <v>0.6969993106600691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>821</v>
@@ -2616,19 +2616,19 @@
         <v>901706</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>864185</v>
+        <v>865369</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>938469</v>
+        <v>936476</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6859534003431966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6574102519680287</v>
+        <v>0.6583108568549986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7139202343999318</v>
+        <v>0.7124040317753535</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>287022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>262211</v>
+        <v>260858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>317690</v>
+        <v>315066</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3566890696635661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3258554668180834</v>
+        <v>0.3241743299317292</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3948012921987597</v>
+        <v>0.3915399027048199</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>320</v>
@@ -2741,19 +2741,19 @@
         <v>331835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>300432</v>
+        <v>303029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>361763</v>
+        <v>362134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3555879284956283</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3219371792135868</v>
+        <v>0.3247197393930822</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3876581431354491</v>
+        <v>0.3880561328984851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>597</v>
@@ -2762,19 +2762,19 @@
         <v>618857</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>580184</v>
+        <v>579936</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>655980</v>
+        <v>665523</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3560977843556685</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3338446579896697</v>
+        <v>0.3337020246574193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3774587274202299</v>
+        <v>0.3829499744650814</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>517662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486994</v>
+        <v>489618</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>542473</v>
+        <v>543826</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6433109303364338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6051987078012404</v>
+        <v>0.6084600972951801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6741445331819168</v>
+        <v>0.6758256700682713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>567</v>
@@ -2812,19 +2812,19 @@
         <v>601366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>571438</v>
+        <v>571067</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>632769</v>
+        <v>630172</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6444120715043717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.612341856864551</v>
+        <v>0.611943867101515</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6780628207864132</v>
+        <v>0.6752802606069178</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1063</v>
@@ -2833,19 +2833,19 @@
         <v>1119028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1081905</v>
+        <v>1072362</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1157701</v>
+        <v>1157949</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6439022156443316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6225412725797702</v>
+        <v>0.6170500255349187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6661553420103304</v>
+        <v>0.6662979753425807</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>863862</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>814709</v>
+        <v>810508</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>912650</v>
+        <v>912228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2966959201333336</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2798144152817445</v>
+        <v>0.2783713029326867</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3134524769298308</v>
+        <v>0.3133075343370686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>913</v>
@@ -2958,19 +2958,19 @@
         <v>983135</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>929732</v>
+        <v>929947</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1034933</v>
+        <v>1032387</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3122748360207148</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2953121400022042</v>
+        <v>0.2953803912842574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3287272208725144</v>
+        <v>0.32791853023361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1727</v>
@@ -2979,19 +2979,19 @@
         <v>1846997</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1777719</v>
+        <v>1772144</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1922087</v>
+        <v>1916889</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3047896290246793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2933573524743565</v>
+        <v>0.2924374082411958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.317180932219856</v>
+        <v>0.3163231355211248</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2047744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1998956</v>
+        <v>1999378</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2096897</v>
+        <v>2101098</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7033040798666664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6865475230701693</v>
+        <v>0.6866924656629314</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7201855847182558</v>
+        <v>0.7216286970673133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2004</v>
@@ -3029,19 +3029,19 @@
         <v>2165167</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2113369</v>
+        <v>2115915</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2218570</v>
+        <v>2218355</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6877251639792852</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6712727791274855</v>
+        <v>0.67208146976639</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7046878599977958</v>
+        <v>0.7046196087157426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3923</v>
@@ -3050,19 +3050,19 @@
         <v>4212911</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4137821</v>
+        <v>4143019</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4282189</v>
+        <v>4287764</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6952103709753207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.682819067780144</v>
+        <v>0.6836768644788751</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7066426475256435</v>
+        <v>0.7075625917588039</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>148481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126594</v>
+        <v>127859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166769</v>
+        <v>169242</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2828243833093801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2411341511102393</v>
+        <v>0.2435440488139201</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3176589235848912</v>
+        <v>0.3223693267531417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -3415,19 +3415,19 @@
         <v>164500</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143678</v>
+        <v>145139</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187762</v>
+        <v>188198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3021881876437856</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2639376868711896</v>
+        <v>0.2666222760930397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3449201216431146</v>
+        <v>0.3457213510119193</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>308</v>
@@ -3436,19 +3436,19 @@
         <v>312981</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>284776</v>
+        <v>282598</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>343334</v>
+        <v>340953</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2926816585532216</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2663062102227378</v>
+        <v>0.2642694208983379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3210656964963361</v>
+        <v>0.318839253601479</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>376512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>358224</v>
+        <v>355751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>398399</v>
+        <v>397134</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7171756166906198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6823410764151088</v>
+        <v>0.6776306732468584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7588658488897606</v>
+        <v>0.7564559511860799</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>379</v>
@@ -3486,19 +3486,19 @@
         <v>379863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>356601</v>
+        <v>356165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>400685</v>
+        <v>399224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6978118123562144</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6550798783568853</v>
+        <v>0.6542786489880805</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7360623131288103</v>
+        <v>0.7333777239069601</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>743</v>
@@ -3507,19 +3507,19 @@
         <v>756375</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>726022</v>
+        <v>728403</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>784580</v>
+        <v>786758</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7073183414467784</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6789343035036639</v>
+        <v>0.6811607463985211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7336937897772622</v>
+        <v>0.7357305791016622</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>302806</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>275494</v>
+        <v>275541</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>330968</v>
+        <v>332043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3709284975588035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3374717694393846</v>
+        <v>0.3375298180199404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4054266946744215</v>
+        <v>0.4067427425112325</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>315</v>
@@ -3632,19 +3632,19 @@
         <v>330077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>300536</v>
+        <v>301960</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>360022</v>
+        <v>360932</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3809870433207167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3468901075320173</v>
+        <v>0.3485333140276223</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4155504282314695</v>
+        <v>0.416601404552793</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>590</v>
@@ -3653,19 +3653,19 @@
         <v>632883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>592480</v>
+        <v>593022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>673873</v>
+        <v>675856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3761072918445516</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.352096825595645</v>
+        <v>0.3524191238846978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4004669863135112</v>
+        <v>0.4016450718831193</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>513540</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485378</v>
+        <v>484303</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>540852</v>
+        <v>540805</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6290715024411966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5945733053255785</v>
+        <v>0.5932572574887676</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6625282305606155</v>
+        <v>0.6624701819800597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>503</v>
@@ -3703,19 +3703,19 @@
         <v>536296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>506351</v>
+        <v>505441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>565837</v>
+        <v>564413</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6190129566792832</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5844495717685304</v>
+        <v>0.5833985954472066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6531098924679826</v>
+        <v>0.6514666859723777</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>982</v>
@@ -3724,19 +3724,19 @@
         <v>1049836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1008846</v>
+        <v>1006863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1090239</v>
+        <v>1089697</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6238927081554485</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5995330136864887</v>
+        <v>0.5983549281168804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6479031744043547</v>
+        <v>0.647580876115302</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>183636</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162084</v>
+        <v>159426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205279</v>
+        <v>205998</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3336646967685478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.294505213337992</v>
+        <v>0.289675595155984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3729909854778119</v>
+        <v>0.3742962074815076</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>224</v>
@@ -3849,19 +3849,19 @@
         <v>233836</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>209523</v>
+        <v>210657</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>256582</v>
+        <v>258658</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4033473113317196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3614100232249094</v>
+        <v>0.3633651961246882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4425831154560556</v>
+        <v>0.4461644000488257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>395</v>
@@ -3870,19 +3870,19 @@
         <v>417471</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>384180</v>
+        <v>387648</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>451996</v>
+        <v>455573</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3694117339064767</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3399529698914635</v>
+        <v>0.343021770247168</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3999617535220499</v>
+        <v>0.4031266140961219</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>366724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>345081</v>
+        <v>344362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388276</v>
+        <v>390934</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6663353032314522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6270090145221882</v>
+        <v>0.6257037925184925</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7054947866620079</v>
+        <v>0.7103244048440162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>328</v>
@@ -3920,19 +3920,19 @@
         <v>345902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>323156</v>
+        <v>321080</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>370215</v>
+        <v>369081</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5966526886682804</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5574168845439446</v>
+        <v>0.5538355999511742</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6385899767750907</v>
+        <v>0.6366348038753118</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>658</v>
@@ -3941,19 +3941,19 @@
         <v>712627</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>678102</v>
+        <v>674525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>745918</v>
+        <v>742450</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6305882660935233</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6000382464779501</v>
+        <v>0.5968733859038781</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6600470301085366</v>
+        <v>0.656978229752832</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>293529</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>269195</v>
+        <v>269371</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>319588</v>
+        <v>321628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3799061817354106</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.348411558596715</v>
+        <v>0.3486400078646519</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4136332506169572</v>
+        <v>0.4162739166661522</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>318</v>
@@ -4066,19 +4066,19 @@
         <v>337860</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>310610</v>
+        <v>309269</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>368983</v>
+        <v>369440</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3853150508334734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3542376606605372</v>
+        <v>0.3527085664762472</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4208090672498491</v>
+        <v>0.4213311235824735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>613</v>
@@ -4087,19 +4087,19 @@
         <v>631389</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>597035</v>
+        <v>592985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>671733</v>
+        <v>671780</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3827814704468054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3619542451549208</v>
+        <v>0.3594991216416036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.407240381318611</v>
+        <v>0.4072685052836765</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>479106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>453047</v>
+        <v>451007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>503440</v>
+        <v>503264</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6200938182645893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5863667493830428</v>
+        <v>0.5837260833338479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6515884414032851</v>
+        <v>0.6513599921353483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -4137,19 +4137,19 @@
         <v>538981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>507858</v>
+        <v>507401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>566231</v>
+        <v>567572</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6146849491665265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5791909327501509</v>
+        <v>0.5786688764175265</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6457623393394627</v>
+        <v>0.6472914335237528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>968</v>
@@ -4158,19 +4158,19 @@
         <v>1018087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>977743</v>
+        <v>977696</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1052441</v>
+        <v>1056491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6172185295531946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.592759618681389</v>
+        <v>0.5927314947163235</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6380457548450793</v>
+        <v>0.6405008783583963</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>928451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>879663</v>
+        <v>883588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>982319</v>
+        <v>981301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3484740703217505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3301625166294197</v>
+        <v>0.3316356184361788</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3686921277813537</v>
+        <v>0.3683103137927002</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1022</v>
@@ -4283,19 +4283,19 @@
         <v>1066273</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1015213</v>
+        <v>1012901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1120433</v>
+        <v>1116537</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.37187151373609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3540638477755765</v>
+        <v>0.3532576810720362</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3907604812116258</v>
+        <v>0.389401699298678</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1906</v>
@@ -4304,19 +4304,19 @@
         <v>1994724</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1926924</v>
+        <v>1918936</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2071473</v>
+        <v>2065306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3606020723469251</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.348345396714963</v>
+        <v>0.3469013331659558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3744766992365898</v>
+        <v>0.37336181333963</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1735882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1682014</v>
+        <v>1683032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1784670</v>
+        <v>1780745</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6515259296782495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6313078722186463</v>
+        <v>0.6316896862072997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6698374833705804</v>
+        <v>0.6683643815638212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1705</v>
@@ -4354,19 +4354,19 @@
         <v>1801042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1746882</v>
+        <v>1750778</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1852102</v>
+        <v>1854414</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.62812848626391</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6092395187883742</v>
+        <v>0.610598300701322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6459361522244235</v>
+        <v>0.6467423189279637</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3351</v>
@@ -4375,19 +4375,19 @@
         <v>3536924</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3460175</v>
+        <v>3466342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3604724</v>
+        <v>3612712</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6393979276530749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6255233007634102</v>
+        <v>0.6266381866603701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6516546032850371</v>
+        <v>0.6530986668340443</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>283399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>255151</v>
+        <v>256602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>310846</v>
+        <v>311053</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4296982829630331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3868671605149615</v>
+        <v>0.3890676345007128</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.471314056941303</v>
+        <v>0.4716275876362972</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>569</v>
@@ -4740,19 +4740,19 @@
         <v>345113</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>320341</v>
+        <v>322670</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>367338</v>
+        <v>369065</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4887248944606562</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4536450550547044</v>
+        <v>0.456943566573441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5201983410646319</v>
+        <v>0.5226447273888593</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>847</v>
@@ -4761,19 +4761,19 @@
         <v>628512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>593005</v>
+        <v>593743</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>665228</v>
+        <v>659405</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4602190265748688</v>
+        <v>0.4602190265748686</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.434219377375373</v>
+        <v>0.4347597595949762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4871041906553189</v>
+        <v>0.4828398354266619</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>376132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348685</v>
+        <v>348478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404380</v>
+        <v>402929</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5703017170369671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.528685943058697</v>
+        <v>0.5283724123637028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6131328394850385</v>
+        <v>0.6109323654992871</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -4811,19 +4811,19 @@
         <v>361036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>338811</v>
+        <v>337084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>385808</v>
+        <v>383479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5112751055393439</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4798016589353679</v>
+        <v>0.4773552726111407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5463549449452957</v>
+        <v>0.5430564334265588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1046</v>
@@ -4832,19 +4832,19 @@
         <v>737168</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>700452</v>
+        <v>706275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>772675</v>
+        <v>771937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5397809734251313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5128958093446809</v>
+        <v>0.5171601645733379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.565780622624627</v>
+        <v>0.5652402404050239</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>519411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>484817</v>
+        <v>482760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>555837</v>
+        <v>555608</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5111258053725883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.477084249850841</v>
+        <v>0.4750594382727182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5469713667211344</v>
+        <v>0.5467461158751886</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>769</v>
@@ -4957,19 +4957,19 @@
         <v>545325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>515589</v>
+        <v>515373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>574678</v>
+        <v>574961</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.520455953331045</v>
+        <v>0.5204559533310448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4920757119904373</v>
+        <v>0.4918691812450011</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5484695177683676</v>
+        <v>0.5487398761477371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1213</v>
@@ -4978,19 +4978,19 @@
         <v>1064736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1016938</v>
+        <v>1017601</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1111138</v>
+        <v>1111172</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.51586224502677</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.49270424542174</v>
+        <v>0.4930255887831409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5383437128757338</v>
+        <v>0.5383603972822879</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>496798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460372</v>
+        <v>460601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>531392</v>
+        <v>533449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4888741946274116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4530286332788653</v>
+        <v>0.4532538841248113</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5229157501491589</v>
+        <v>0.5249405617272819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>717</v>
@@ -5028,19 +5028,19 @@
         <v>502459</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473106</v>
+        <v>472823</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>532195</v>
+        <v>532411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4795440466689551</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4515304822316324</v>
+        <v>0.4512601238522631</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5079242880095629</v>
+        <v>0.508130818754999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1209</v>
@@ -5049,19 +5049,19 @@
         <v>999257</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952855</v>
+        <v>952821</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1047055</v>
+        <v>1046392</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.48413775497323</v>
+        <v>0.4841377549732299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4616562871242663</v>
+        <v>0.4616396027177124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5072957545782599</v>
+        <v>0.5069744112168593</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>336340</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>305977</v>
+        <v>305599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>370885</v>
+        <v>373560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4345437835348016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3953147547929168</v>
+        <v>0.394827279362173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.47917512978982</v>
+        <v>0.4826310062930151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>445</v>
@@ -5174,19 +5174,19 @@
         <v>340230</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>314311</v>
+        <v>313598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>367571</v>
+        <v>367823</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4277771618981355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3951882018848217</v>
+        <v>0.3942917033662395</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.462152684676481</v>
+        <v>0.4624700840704008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>731</v>
@@ -5195,19 +5195,19 @@
         <v>676571</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>639721</v>
+        <v>634876</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>715068</v>
+        <v>716794</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4311144714556658</v>
+        <v>0.4311144714556657</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4076333047174631</v>
+        <v>0.404546532269299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4556450832097981</v>
+        <v>0.4567448028476887</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>437668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>403123</v>
+        <v>400448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>468031</v>
+        <v>468409</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5654562164651985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5208248702101802</v>
+        <v>0.5173689937069851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6046852452070832</v>
+        <v>0.605172720637827</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>579</v>
@@ -5245,19 +5245,19 @@
         <v>455115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>427774</v>
+        <v>427522</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>481034</v>
+        <v>481747</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5722228381018645</v>
+        <v>0.5722228381018646</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5378473153235187</v>
+        <v>0.5375299159295991</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6048117981151778</v>
+        <v>0.6057082966337605</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>948</v>
@@ -5266,19 +5266,19 @@
         <v>892782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>854285</v>
+        <v>852559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>929632</v>
+        <v>934477</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5688855285443344</v>
+        <v>0.5688855285443343</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5443549167902021</v>
+        <v>0.5432551971523114</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5923666952825368</v>
+        <v>0.5954534677307008</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>463115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>430643</v>
+        <v>431120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>494591</v>
+        <v>495134</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.488539346111752</v>
+        <v>0.4885393461117521</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4542842137084068</v>
+        <v>0.4547875471858413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5217428333950894</v>
+        <v>0.5223159656041902</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>735</v>
@@ -5391,19 +5391,19 @@
         <v>532895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>502287</v>
+        <v>503523</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>558806</v>
+        <v>564241</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4951777052318908</v>
+        <v>0.4951777052318907</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4667361716885869</v>
+        <v>0.4678845141867443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5192547757361097</v>
+        <v>0.5243051646943697</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1200</v>
@@ -5412,19 +5412,19 @@
         <v>996011</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>952998</v>
+        <v>952401</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1040175</v>
+        <v>1040399</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4920687665597413</v>
+        <v>0.4920687665597412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4708189407217296</v>
+        <v>0.47052382081246</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5138875592928647</v>
+        <v>0.5139983747993774</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>484844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>453368</v>
+        <v>452825</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>517316</v>
+        <v>516839</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5114606538882478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4782571666049104</v>
+        <v>0.4776840343958097</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5457157862915931</v>
+        <v>0.5452124528141588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>775</v>
@@ -5462,19 +5462,19 @@
         <v>543275</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>517364</v>
+        <v>511929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>573883</v>
+        <v>572647</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5048222947681092</v>
+        <v>0.5048222947681094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4807452242638904</v>
+        <v>0.4756948353056304</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5332638283114132</v>
+        <v>0.5321154858132556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1276</v>
@@ -5483,19 +5483,19 @@
         <v>1028118</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>983954</v>
+        <v>983730</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1071131</v>
+        <v>1071728</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5079312334402587</v>
+        <v>0.5079312334402586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4861124407071353</v>
+        <v>0.4860016252006225</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5291810592782703</v>
+        <v>0.5294761791875398</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1602266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1532421</v>
+        <v>1536278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1662699</v>
+        <v>1669147</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4715726327480701</v>
+        <v>0.47157263274807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4510162393338584</v>
+        <v>0.4521513841531291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4893591295586825</v>
+        <v>0.4912570417859246</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2518</v>
@@ -5608,19 +5608,19 @@
         <v>1763564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1711344</v>
+        <v>1705492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1815875</v>
+        <v>1814464</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4864402435980973</v>
+        <v>0.4864402435980972</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4720364379870138</v>
+        <v>0.4704223073461752</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5008690912610059</v>
+        <v>0.5004800340746792</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3991</v>
@@ -5629,19 +5629,19 @@
         <v>3365829</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3286868</v>
+        <v>3280309</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3455665</v>
+        <v>3448101</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4792474951632352</v>
+        <v>0.4792474951632351</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4680045221935678</v>
+        <v>0.4670705891539168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4920387784287189</v>
+        <v>0.4909618351721852</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1795441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1735008</v>
+        <v>1728560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1865286</v>
+        <v>1861429</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5284273672519298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5106408704413173</v>
+        <v>0.5087429582140752</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5489837606661416</v>
+        <v>0.5478486158468708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2699</v>
@@ -5679,19 +5679,19 @@
         <v>1861884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1809573</v>
+        <v>1810984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1914104</v>
+        <v>1919956</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5135597564019027</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4991309087389942</v>
+        <v>0.4995199659253208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.527963562012986</v>
+        <v>0.5295776926538247</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4479</v>
@@ -5700,19 +5700,19 @@
         <v>3657326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3567490</v>
+        <v>3575054</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3736287</v>
+        <v>3742846</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5207525048367649</v>
+        <v>0.5207525048367648</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5079612215712811</v>
+        <v>0.5090381648278147</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5319954778064321</v>
+        <v>0.5329294108460831</v>
       </c>
     </row>
     <row r="18">
